--- a/Project Eater/Assets/Scripts/Core/UI/StatUpgrade/StatUpgradeDB.xlsx
+++ b/Project Eater/Assets/Scripts/Core/UI/StatUpgrade/StatUpgradeDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Core\UI\StatUpgrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A580CC1-E965-434B-B0BA-0576D513C3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E240DD64-854D-4AC0-B5D5-D6C77A40A732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{3BCFE526-8554-4018-BF4D-08651321E8F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{3BCFE526-8554-4018-BF4D-08651321E8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Fullness" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -707,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -715,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -726,10 +726,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F47C0EB-AEC9-4C0D-BAF3-B90B4855D8F2}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -763,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -771,7 +771,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -779,7 +779,15 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -840,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC4AF6C-2576-4EAB-B9C2-05102BDF7945}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -867,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -875,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -883,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -891,7 +899,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -899,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DFFB01-B164-4340-8071-805F10070322}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Project Eater/Assets/Scripts/Core/UI/StatUpgrade/StatUpgradeDB.xlsx
+++ b/Project Eater/Assets/Scripts/Core/UI/StatUpgrade/StatUpgradeDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Eater\Project Eater\Assets\Scripts\Core\UI\StatUpgrade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E240DD64-854D-4AC0-B5D5-D6C77A40A732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC29378-70BD-4A33-AE56-03F4DEA25B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{3BCFE526-8554-4018-BF4D-08651321E8F8}"/>
   </bookViews>
@@ -849,7 +849,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
